--- a/CebExcel/Ceb.xlsx
+++ b/CebExcel/Ceb.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18613"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="9398" xr2:uid="{BB965B39-DA89-4C34-AB11-7115A16DC3D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12510" windowHeight="5805" xr2:uid="{BB965B39-DA89-4C34-AB11-7115A16DC3D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Compte est bon" sheetId="1" r:id="rId1"/>
     <sheet name="Param" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Data">'Compte est bon'!#REF!</definedName>
     <definedName name="Durée">'Compte est bon'!$F$9</definedName>
     <definedName name="NbSolutions">'Compte est bon'!$C$9</definedName>
     <definedName name="Plaque_1">'Compte est bon'!$A$2</definedName>
@@ -27,7 +26,6 @@
     <definedName name="Plaque_6">'Compte est bon'!$F$2</definedName>
     <definedName name="Recherche">'Compte est bon'!$G$2</definedName>
     <definedName name="Resultat">'Compte est bon'!$B$7</definedName>
-    <definedName name="Valeur">'Compte est bon'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -305,13 +303,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2E2413D132CF1E2490728DDB2C9DEA7236F422"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="117C41B6C102A71401518D1A1E5A114902CED1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="8215"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="8176"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1005"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -322,13 +320,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="117C41B6C102A71401518D1A1E5A114902CED1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2E2413D132CF1E2490728DDB2C9DEA7236F422"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="8176"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="8215"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1005"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -913,8 +911,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1185863</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -933,32 +956,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1185863</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1"/>
+        <control shapeId="1026" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/CebExcel/Ceb.xlsx
+++ b/CebExcel/Ceb.xlsx
@@ -1,29 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18613"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20907"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnaud\Source\CompteEstBon\CebExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnaud\source\CompteEstBon\CebExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13570488-D5B8-4006-BC85-6A5E4146034D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12510" windowHeight="5805" xr2:uid="{BB965B39-DA89-4C34-AB11-7115A16DC3D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7598" xr2:uid="{BB965B39-DA89-4C34-AB11-7115A16DC3D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Compte est bon" sheetId="1" r:id="rId1"/>
-    <sheet name="Param" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Durée">'Compte est bon'!$F$9</definedName>
     <definedName name="NbSolutions">'Compte est bon'!$C$9</definedName>
-    <definedName name="Plaque_1">'Compte est bon'!$A$2</definedName>
-    <definedName name="Plaque_2">'Compte est bon'!$B$2</definedName>
-    <definedName name="Plaque_3">'Compte est bon'!$C$2</definedName>
-    <definedName name="Plaque_4">'Compte est bon'!$D$2</definedName>
-    <definedName name="Plaque_5">'Compte est bon'!$E$2</definedName>
-    <definedName name="Plaque_6">'Compte est bon'!$F$2</definedName>
+    <definedName name="plaques">'Compte est bon'!$A$2:$F$2</definedName>
     <definedName name="Recherche">'Compte est bon'!$G$2</definedName>
     <definedName name="Resultat">'Compte est bon'!$B$7</definedName>
   </definedNames>
@@ -92,7 +88,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -100,14 +96,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -115,12 +111,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +133,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -199,9 +201,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -210,34 +210,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -248,13 +249,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -345,9 +354,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -379,10 +388,11 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
+                <a14:hiddenLine w="9525" cap="flat" cmpd="sng">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
                   </a:solidFill>
+                  <a:prstDash val="solid"/>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
                   <a:tailEnd/>
@@ -406,10 +416,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1033462</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -465,18 +475,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE51B2DF-68C0-4749-8BEE-35AED6B79AAC}" name="tbSolutions" displayName="tbSolutions" ref="B11:F12" insertRow="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{70AB7C4D-7C35-4468-8903-37BCEB975C66}" name="Opération 1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{4B5F0957-75D1-4169-8A7C-6C694DC8B17D}" name="Opération 2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{904F7E60-19E2-41B1-9F70-3CD152D2CBC6}" name="Opération 3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{F7DDFD41-6BE8-4E1F-A9F0-02D3E33EAEDC}" name="Opération 4" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{88054C7E-4B3C-45BC-8543-667E43094B9E}" name="Opération 5" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{B4856A93-C97B-4B3A-B0D7-DEED585F3958}" name="Opération 2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5311E994-74EE-4883-B233-71CF3B115751}" name="Opération 3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{5E248BB2-BA47-4067-87F0-CAB8C010FE00}" name="Opération 4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{470C4DBF-3D27-450A-B3A4-ADA80FB09D55}" name="Opération 5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC1B04F1-A82F-4E53-A0D3-19066C81F580}" name="lPlaques" displayName="lPlaques" ref="A1:A14" totalsRowShown="0">
-  <autoFilter ref="A1:A14" xr:uid="{CCEBB33D-6D82-44E8-A238-D2787F829420}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC1B04F1-A82F-4E53-A0D3-19066C81F580}" name="lPlaques" displayName="lPlaques" ref="A1:A15" totalsRowShown="0">
+  <autoFilter ref="A1:A15" xr:uid="{CCEBB33D-6D82-44E8-A238-D2787F829420}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{98016AA4-EF48-43ED-8D21-6EE9B5A97E62}" name="Plaques"/>
   </tableColumns>
@@ -485,9 +495,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Intégral">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Intégral">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -495,100 +505,50 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="335B74"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="DFE3E5"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="1CADE4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="2683C6"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="27CED7"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="42BA97"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="3E8853"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="62A39F"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="6B9F25"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="B26B02"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Intégral">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Tw Cen MT Condensed" panose="020B0606020104020203"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Grek" typeface="Calibri"/>
+        <a:font script="Cyrl" typeface="Calibri"/>
+        <a:font script="Jpan" typeface="メイリオ"/>
+        <a:font script="Hang" typeface="HY얕은샘물M"/>
+        <a:font script="Hans" typeface="华文仿宋"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
         <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Hebr" typeface="Levenim MT"/>
+        <a:font script="Thai" typeface="FreesiaUPC"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -609,29 +569,49 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Viet" typeface="Tahoma"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Tw Cen MT" panose="020B0602020104020603"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Grek" typeface="Calibri"/>
+        <a:font script="Cyrl" typeface="Calibri"/>
+        <a:font script="Jpan" typeface="メイリオ"/>
+        <a:font script="Hang" typeface="HY얕은샘물M"/>
+        <a:font script="Hans" typeface="华文仿宋"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Levenim MT"/>
+        <a:font script="Thai" typeface="FreesiaUPC"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Tahoma"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Intégral">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -640,76 +620,65 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="83000"/>
+                <a:satMod val="100000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="61000"/>
+                <a:satMod val="150000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="100000" t="100000" r="100000" b="100000"/>
+          </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
+                <a:tint val="100000"/>
+                <a:shade val="85000"/>
+                <a:satMod val="100000"/>
                 <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="90000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="150000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="100000" t="100000" r="100000" b="100000"/>
+          </a:path>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -717,16 +686,39 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="76200" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="60000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="flat" dir="t">
+              <a:rot lat="0" lon="0" rev="3600000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d contourW="12700" prstMaterial="flat">
+            <a:bevelT w="38100" h="44450" prst="angle"/>
+            <a:contourClr>
+              <a:schemeClr val="phClr">
+                <a:shade val="35000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -736,36 +728,27 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
+            <a:shade val="85000"/>
+            <a:satMod val="125000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
+        <a:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:duotone>
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="95000"/>
+                <a:shade val="74000"/>
+                <a:satMod val="230000"/>
               </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="92000"/>
+                <a:shade val="69000"/>
+                <a:satMod val="250000"/>
               </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+            </a:duotone>
+          </a:blip>
+          <a:tile tx="0" ty="0" sx="40000" sy="40000" flip="none" algn="tl"/>
+        </a:blipFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -773,7 +756,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -784,18 +767,18 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="16.59765625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.6640625" style="2"/>
+    <col min="1" max="7" width="16.5625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,80 +801,80 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="7.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:7" ht="5.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="8.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="7.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:7" ht="5.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" ht="8.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="13"/>
       <c r="D9"/>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="7.9" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="8" t="s">
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="7.9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="10"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="7"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -922,9 +905,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -946,10 +929,10 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1033463</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -968,7 +951,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Plaque" error="Plaque invalide" xr:uid="{A19A7A4D-7ADD-4DA2-9983-07CF7761EF19}">
           <x14:formula1>
-            <xm:f>Param!$A$2:$A$14</xm:f>
+            <xm:f>Param!$A$2:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>A2:F2</xm:sqref>
         </x14:dataValidation>
@@ -981,81 +964,86 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3486A865-35F6-476E-9EC3-0C1A0FAF85AF}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15">
         <v>100</v>
       </c>
     </row>
